--- a/C_Module/data/input/additional_information/carbon_additional_information.xlsx
+++ b/C_Module/data/input/additional_information/carbon_additional_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honkomp\PycharmProjects\GitHub\C-Module\C_Module\data\input\additional_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69367D63-FE78-41E6-B855-E36D7AE5A0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A9310E-2847-47E7-AE25-8593B86D8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarbonForestBiomass" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4826" uniqueCount="599">
   <si>
     <t>Algeria</t>
   </si>
@@ -1808,9 +1808,6 @@
     <t>ISO3 Code</t>
   </si>
   <si>
-    <t>TiMBA Area Code</t>
-  </si>
-  <si>
     <t>Carbon Region</t>
   </si>
   <si>
@@ -1821,6 +1818,24 @@
   </si>
   <si>
     <t>Item Code</t>
+  </si>
+  <si>
+    <t>RegionCode</t>
+  </si>
+  <si>
+    <t>hwp_category</t>
+  </si>
+  <si>
+    <t>roundwood_category</t>
+  </si>
+  <si>
+    <t>sawnwood</t>
+  </si>
+  <si>
+    <t>wood-based panels</t>
+  </si>
+  <si>
+    <t>paper and paperboard</t>
   </si>
 </sst>
 </file>
@@ -2176,17 +2191,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" t="s">
         <v>535</v>
@@ -2198,7 +2213,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>362</v>
       </c>
@@ -2226,7 +2241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2268,7 +2283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>392</v>
       </c>
@@ -2282,7 +2297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>503</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -2338,7 +2353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2380,7 +2395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>517</v>
       </c>
@@ -2401,27 +2416,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF260AE-DC2F-47E2-A0A1-2E91A4248305}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
         <v>591</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>592</v>
-      </c>
-      <c r="C1" t="s">
-        <v>593</v>
       </c>
       <c r="D1" t="s">
         <v>538</v>
@@ -2432,8 +2447,11 @@
       <c r="F1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>81</v>
       </c>
@@ -2473,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>82</v>
       </c>
@@ -2493,7 +2511,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>83</v>
       </c>
@@ -2512,8 +2530,11 @@
       <c r="F5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>84</v>
       </c>
@@ -2532,8 +2553,11 @@
       <c r="F6">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>85</v>
       </c>
@@ -2552,8 +2576,11 @@
       <c r="F7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>86</v>
       </c>
@@ -2572,8 +2599,11 @@
       <c r="F8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>87</v>
       </c>
@@ -2593,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>88</v>
       </c>
@@ -2613,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89</v>
       </c>
@@ -2633,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
@@ -2653,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>91</v>
       </c>
@@ -2672,8 +2702,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>92</v>
       </c>
@@ -2692,8 +2725,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>93</v>
       </c>
@@ -2711,6 +2747,9 @@
       </c>
       <c r="F15">
         <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -2720,26 +2759,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
         <v>591</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>592</v>
-      </c>
-      <c r="C1" t="s">
-        <v>593</v>
       </c>
       <c r="D1" t="s">
         <v>538</v>
@@ -2750,8 +2789,11 @@
       <c r="F1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>78</v>
       </c>
@@ -2771,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>79</v>
       </c>
@@ -2790,8 +2832,11 @@
       <c r="F3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80</v>
       </c>
@@ -2811,7 +2856,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>81</v>
       </c>
@@ -2831,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>82</v>
       </c>
@@ -2851,7 +2896,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>83</v>
       </c>
@@ -2870,8 +2915,11 @@
       <c r="F7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>84</v>
       </c>
@@ -2890,8 +2938,11 @@
       <c r="F8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>85</v>
       </c>
@@ -2910,8 +2961,11 @@
       <c r="F9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>86</v>
       </c>
@@ -2930,8 +2984,11 @@
       <c r="F10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>87</v>
       </c>
@@ -2951,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>88</v>
       </c>
@@ -2971,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>89</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90</v>
       </c>
@@ -3011,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>91</v>
       </c>
@@ -3030,8 +3087,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>92</v>
       </c>
@@ -3050,8 +3110,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>93</v>
       </c>
@@ -3069,6 +3132,9 @@
       </c>
       <c r="F17">
         <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -3078,26 +3144,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF68D06-E560-43C0-A49D-4BDFC7A9E8F4}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
         <v>591</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>592</v>
-      </c>
-      <c r="C1" t="s">
-        <v>593</v>
       </c>
       <c r="D1" t="s">
         <v>538</v>
@@ -3108,8 +3174,11 @@
       <c r="F1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>74</v>
       </c>
@@ -3128,8 +3197,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>75</v>
       </c>
@@ -3149,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>76</v>
       </c>
@@ -3169,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>77</v>
       </c>
@@ -3189,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>78</v>
       </c>
@@ -3209,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>79</v>
       </c>
@@ -3228,8 +3300,11 @@
       <c r="F7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
@@ -3249,7 +3324,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81</v>
       </c>
@@ -3269,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>82</v>
       </c>
@@ -3289,7 +3364,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>83</v>
       </c>
@@ -3308,8 +3383,11 @@
       <c r="F11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>84</v>
       </c>
@@ -3328,8 +3406,11 @@
       <c r="F12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>85</v>
       </c>
@@ -3348,8 +3429,11 @@
       <c r="F13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>86</v>
       </c>
@@ -3368,8 +3452,11 @@
       <c r="F14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>87</v>
       </c>
@@ -3389,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>88</v>
       </c>
@@ -3409,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>89</v>
       </c>
@@ -3429,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90</v>
       </c>
@@ -3449,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>91</v>
       </c>
@@ -3468,8 +3555,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>92</v>
       </c>
@@ -3488,8 +3578,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>93</v>
       </c>
@@ -3507,6 +3600,9 @@
       </c>
       <c r="F21">
         <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -3519,21 +3615,21 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>588</v>
@@ -3548,7 +3644,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3664,7 @@
         <v>0.30836770577395578</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3684,7 @@
         <v>0.37696316480999598</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +3704,7 @@
         <v>0.79907279480346438</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3628,7 +3724,7 @@
         <v>0.70502427095927611</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3744,7 @@
         <v>0.98962515544501661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +3764,7 @@
         <v>0.47475341603630861</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3784,7 @@
         <v>0.44648739693340173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3708,7 +3804,7 @@
         <v>0.31045258264462822</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3728,7 +3824,7 @@
         <v>0.61095824720627467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3748,7 +3844,7 @@
         <v>2.3503042556532661</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3768,7 +3864,7 @@
         <v>0.49693839118400213</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3788,7 +3884,7 @@
         <v>0.96352911545560216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3808,7 +3904,7 @@
         <v>1.31013950617284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3828,7 +3924,7 @@
         <v>0.46979111111111099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3848,7 +3944,7 @@
         <v>0.6110265601646534</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3868,7 +3964,7 @@
         <v>0.44701780777362182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3888,7 +3984,7 @@
         <v>0.44651061679767912</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3908,7 +4004,7 @@
         <v>0.61117213053263331</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3928,7 +4024,7 @@
         <v>0.92306448798093543</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3948,7 +4044,7 @@
         <v>0.79714039844555695</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3968,7 +4064,7 @@
         <v>1.3275935120820921</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3988,7 +4084,7 @@
         <v>0.43986050622457151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -4008,7 +4104,7 @@
         <v>0.53160799999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -4028,7 +4124,7 @@
         <v>0.61101203612776112</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -4048,7 +4144,7 @@
         <v>0.63914358322744591</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -4068,7 +4164,7 @@
         <v>0.44859599893072188</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -4088,7 +4184,7 @@
         <v>0.70476710198171144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4108,7 +4204,7 @@
         <v>0.51186346530980031</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4128,7 +4224,7 @@
         <v>0.8925249573898224</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -4148,7 +4244,7 @@
         <v>0.68730377800407316</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4168,7 +4264,7 @@
         <v>0.74478129886617361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -4188,7 +4284,7 @@
         <v>1.308672641902805</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4208,7 +4304,7 @@
         <v>1.7711887653598599</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -4228,7 +4324,7 @@
         <v>0.63238828244556244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -4248,7 +4344,7 @@
         <v>0.30750264177527298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4268,7 +4364,7 @@
         <v>0.64648964088397798</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -4288,7 +4384,7 @@
         <v>0.61104000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -4308,7 +4404,7 @@
         <v>0.55994541300065659</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -4328,7 +4424,7 @@
         <v>0.96352600038550507</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4348,7 +4444,7 @@
         <v>0.96311826177010318</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -4368,7 +4464,7 @@
         <v>0.76517371561361613</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -4388,7 +4484,7 @@
         <v>1.3155020907501589</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -4408,7 +4504,7 @@
         <v>0.99016291868705686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4428,7 +4524,7 @@
         <v>0.33531174149123472</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -4448,7 +4544,7 @@
         <v>0.71538879051982518</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -4468,7 +4564,7 @@
         <v>0.88484945087563094</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -4488,7 +4584,7 @@
         <v>0.60523823005633293</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -4508,7 +4604,7 @@
         <v>0.44508195030489328</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -4528,7 +4624,7 @@
         <v>0.32516411335163431</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -4548,7 +4644,7 @@
         <v>1.294551322678585</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -4568,7 +4664,7 @@
         <v>0.5877683672211953</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -4588,7 +4684,7 @@
         <v>0.53080568558396102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -4608,7 +4704,7 @@
         <v>0.61120787337407934</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -4628,7 +4724,7 @@
         <v>0.34790388916218612</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -4648,7 +4744,7 @@
         <v>0.42859392581143729</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -4668,7 +4764,7 @@
         <v>0.37311115086311541</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -4688,7 +4784,7 @@
         <v>0.59307407407407409</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -4708,7 +4804,7 @@
         <v>0.53080568558396102</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -4728,7 +4824,7 @@
         <v>0.45837161780104713</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -4748,7 +4844,7 @@
         <v>0.28467052503775658</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -4768,7 +4864,7 @@
         <v>0.4372355545584713</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -4788,7 +4884,7 @@
         <v>0.68377161202185766</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -4808,7 +4904,7 @@
         <v>0.31483075519118592</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -4828,7 +4924,7 @@
         <v>0.69846468617272284</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -4848,7 +4944,7 @@
         <v>0.51964756182112326</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -4868,7 +4964,7 @@
         <v>0.43513493038942502</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -4888,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -4908,7 +5004,7 @@
         <v>0.28862506760322448</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -4928,7 +5024,7 @@
         <v>0.28177190865938079</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -4948,7 +5044,7 @@
         <v>0.6110882744282744</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -4968,7 +5064,7 @@
         <v>0.35712759672891498</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -4988,7 +5084,7 @@
         <v>0.35347794890939049</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -5008,7 +5104,7 @@
         <v>0.85113840129925</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -5028,7 +5124,7 @@
         <v>0.79899023498068511</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -5048,7 +5144,7 @@
         <v>0.3494891449583063</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -5068,7 +5164,7 @@
         <v>0.44419689236699422</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -5088,7 +5184,7 @@
         <v>0.3671148540144929</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -5108,7 +5204,7 @@
         <v>0.45565735755576148</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -5128,7 +5224,7 @@
         <v>0.51990899915668831</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -5148,7 +5244,7 @@
         <v>0.61100543839945531</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -5168,7 +5264,7 @@
         <v>0.51026625418692773</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -5188,7 +5284,7 @@
         <v>0.70162844698898053</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -5208,7 +5304,7 @@
         <v>0.45860459962078831</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -5228,7 +5324,7 @@
         <v>0.4180392156862745</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5248,7 +5344,7 @@
         <v>0.43383519607579812</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5268,7 +5364,7 @@
         <v>0.56523800311092565</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -5288,7 +5384,7 @@
         <v>0.46202158775143343</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -5308,7 +5404,7 @@
         <v>0.64482299901992823</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -5328,7 +5424,7 @@
         <v>0.3671116392501913</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -5348,7 +5444,7 @@
         <v>0.61099999999999988</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -5368,7 +5464,7 @@
         <v>0.31019089152217089</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -5388,7 +5484,7 @@
         <v>0.36398326968363959</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -5408,7 +5504,7 @@
         <v>0.28196040313225063</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -5428,7 +5524,7 @@
         <v>0.74327142857142869</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -5448,7 +5544,7 @@
         <v>0.43957139961013653</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -5468,7 +5564,7 @@
         <v>0.60876147981788242</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -5488,7 +5584,7 @@
         <v>1.027298612597473</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -5508,7 +5604,7 @@
         <v>0.65980183426138228</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -5528,7 +5624,7 @@
         <v>0.46202158775143348</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -5548,7 +5644,7 @@
         <v>0.37775057532989642</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -5568,7 +5664,7 @@
         <v>0.88981228668941981</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -5588,7 +5684,7 @@
         <v>0.46110041193243012</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -5608,7 +5704,7 @@
         <v>0.39817184844900783</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -5628,7 +5724,7 @@
         <v>0.46202158775143343</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -5648,7 +5744,7 @@
         <v>0.96355958763858773</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -5668,7 +5764,7 @@
         <v>0.80811478519497693</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -5688,7 +5784,7 @@
         <v>0.70500000000000007</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -5708,7 +5804,7 @@
         <v>0.4563561233492166</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -5728,7 +5824,7 @@
         <v>0.30218055099768532</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -5748,7 +5844,7 @@
         <v>1.870550280969663</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -5768,7 +5864,7 @@
         <v>0.49132274101598289</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -5788,7 +5884,7 @@
         <v>1.0359</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -5808,7 +5904,7 @@
         <v>0.62060721516483852</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>331</v>
       </c>
@@ -5828,7 +5924,7 @@
         <v>0.6023298607288935</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -5848,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -5868,7 +5964,7 @@
         <v>1.488705237515225</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -5888,7 +5984,7 @@
         <v>0.54512113823130504</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -5908,7 +6004,7 @@
         <v>1.665972964421319</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -5928,7 +6024,7 @@
         <v>0.78239904822604645</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -5948,7 +6044,7 @@
         <v>0.70354302603040686</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -5968,7 +6064,7 @@
         <v>0.34144524597383369</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>351</v>
       </c>
@@ -5988,7 +6084,7 @@
         <v>0.70227727848101262</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>354</v>
       </c>
@@ -6008,7 +6104,7 @@
         <v>0.35438360711911637</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -6028,7 +6124,7 @@
         <v>0.71533069306930708</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -6048,7 +6144,7 @@
         <v>0.27786956394010748</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -6068,7 +6164,7 @@
         <v>0.51707750133186348</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -6088,7 +6184,7 @@
         <v>0.43272057597063462</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -6108,7 +6204,7 @@
         <v>0.67970795321637412</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>370</v>
       </c>
@@ -6128,7 +6224,7 @@
         <v>0.87593283650190112</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -6148,7 +6244,7 @@
         <v>0.35152492865067458</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>376</v>
       </c>
@@ -6168,7 +6264,7 @@
         <v>0.86861077878753024</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -6188,7 +6284,7 @@
         <v>0.74899100465116264</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -6208,7 +6304,7 @@
         <v>0.78832105973451316</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -6228,7 +6324,7 @@
         <v>0.58844640287769789</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -6248,7 +6344,7 @@
         <v>0.51707750133186359</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -6268,7 +6364,7 @@
         <v>0.95929697345620679</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -6288,7 +6384,7 @@
         <v>0.27884693893703061</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -6308,7 +6404,7 @@
         <v>0.30645206213626691</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -6328,7 +6424,7 @@
         <v>0.33611460342240412</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -6348,7 +6444,7 @@
         <v>0.42954748558953187</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -6368,7 +6464,7 @@
         <v>0.37120178160691991</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>407</v>
       </c>
@@ -6388,7 +6484,7 @@
         <v>0.25928658718983433</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -6408,7 +6504,7 @@
         <v>0.25057120177741871</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>413</v>
       </c>
@@ -6428,7 +6524,7 @@
         <v>0.27342667782836838</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>416</v>
       </c>
@@ -6448,7 +6544,7 @@
         <v>0.36332047982106053</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -6468,7 +6564,7 @@
         <v>0.28097037128037128</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>422</v>
       </c>
@@ -6488,7 +6584,7 @@
         <v>0.32726873794505562</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -6508,7 +6604,7 @@
         <v>0.27567055974190569</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -6528,7 +6624,7 @@
         <v>0.2177238066766318</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -6548,7 +6644,7 @@
         <v>0.34217857053804862</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -6568,7 +6664,7 @@
         <v>0.37139014967579748</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -6588,7 +6684,7 @@
         <v>0.44128844392095268</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -6608,7 +6704,7 @@
         <v>0.23870683869300999</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>441</v>
       </c>
@@ -6628,7 +6724,7 @@
         <v>0.1221512435647938</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>444</v>
       </c>
@@ -6648,7 +6744,7 @@
         <v>0.31871966717350902</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>447</v>
       </c>
@@ -6668,7 +6764,7 @@
         <v>0.27015991682596502</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -6688,7 +6784,7 @@
         <v>0.30645206213626691</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -6708,7 +6804,7 @@
         <v>0.28695593067747022</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -6728,7 +6824,7 @@
         <v>0.30200523317528688</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -6748,7 +6844,7 @@
         <v>0.35552134280958497</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -6768,7 +6864,7 @@
         <v>0.45778047058244459</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>465</v>
       </c>
@@ -6788,7 +6884,7 @@
         <v>0.28215444133692458</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -6808,7 +6904,7 @@
         <v>0.27241502784897659</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -6828,7 +6924,7 @@
         <v>0.26983699166241282</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>473</v>
       </c>
@@ -6848,7 +6944,7 @@
         <v>0.47804431053712182</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>476</v>
       </c>
@@ -6868,7 +6964,7 @@
         <v>0.46202158775143348</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -6888,7 +6984,7 @@
         <v>0.16979276028739379</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -6908,7 +7004,7 @@
         <v>0.36807875534602802</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -6928,7 +7024,7 @@
         <v>0.26873027652103448</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -6948,7 +7044,7 @@
         <v>0.37054479207920787</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -6968,7 +7064,7 @@
         <v>0.3289912808842293</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -6988,7 +7084,7 @@
         <v>0.52390129880755165</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -7008,7 +7104,7 @@
         <v>0.32500661575611228</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -7028,7 +7124,7 @@
         <v>0.26211362297645879</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -7048,7 +7144,7 @@
         <v>0.39730940321515079</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -7068,7 +7164,7 @@
         <v>0.38433795494608392</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -7088,7 +7184,7 @@
         <v>0.46202158775143348</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -7108,7 +7204,7 @@
         <v>0.46202158775143348</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -7128,7 +7224,7 @@
         <v>0.29458469539375931</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -7158,17 +7254,20 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>588</v>
@@ -7183,7 +7282,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7203,7 +7302,7 @@
         <v>0.112560925982801</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7322,7 @@
         <v>7.539263296199919E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7243,7 +7342,7 @@
         <v>0.15988021818787479</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7263,7 +7362,7 @@
         <v>0.19739133692884761</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7283,7 +7382,7 @@
         <v>0.28275004441286189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7303,7 +7402,7 @@
         <v>0.13224729803328289</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -7323,7 +7422,7 @@
         <v>0.10716844479656989</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7343,7 +7442,7 @@
         <v>8.681559917355372E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -7363,7 +7462,7 @@
         <v>0.14664674580105519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7383,7 +7482,7 @@
         <v>0.65797562028894463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7403,7 +7502,7 @@
         <v>0.18367332733700281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -7423,7 +7522,7 @@
         <v>0.27696849545423469</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -7443,7 +7542,7 @@
         <v>0.36685154320987651</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -7463,7 +7562,7 @@
         <v>0.13385714814814809</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -7483,7 +7582,7 @@
         <v>0.14666576826011321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -7503,7 +7602,7 @@
         <v>0.10870873312733779</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -7523,7 +7622,7 @@
         <v>0.1071489310108221</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -7543,7 +7642,7 @@
         <v>0.122819279819955</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -7563,7 +7662,7 @@
         <v>0.18738696627984619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -7583,7 +7682,7 @@
         <v>0.19131369562693371</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -7603,7 +7702,7 @@
         <v>0.26551870241641851</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -7623,7 +7722,7 @@
         <v>0.11325777528080121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -7643,7 +7742,7 @@
         <v>0.19699413333333329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -7663,7 +7762,7 @@
         <v>0.14664542031365471</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -7683,7 +7782,7 @@
         <v>0.12959339263024139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -7703,7 +7802,7 @@
         <v>0.1184794021423078</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -7723,7 +7822,7 @@
         <v>0.16952505966587109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -7743,7 +7842,7 @@
         <v>0.1282595007155351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -7763,7 +7862,7 @@
         <v>0.35705807158509872</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -7783,7 +7882,7 @@
         <v>0.17721298370672101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -7803,7 +7902,7 @@
         <v>0.22813458718206889</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -7823,7 +7922,7 @@
         <v>0.34557308637987572</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -7843,7 +7942,7 @@
         <v>0.50619398478642486</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -7863,7 +7962,7 @@
         <v>0.13448484629841689</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7883,7 +7982,7 @@
         <v>6.1500528355054603E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7903,7 +8002,7 @@
         <v>0.16544026243093929</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -7923,7 +8022,7 @@
         <v>0.14663999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -7943,7 +8042,7 @@
         <v>0.16801050558109001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -7963,7 +8062,7 @@
         <v>0.19275520142636859</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -7983,7 +8082,7 @@
         <v>0.26972109925843252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -8003,7 +8102,7 @@
         <v>0.18428831742243429</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -8023,7 +8122,7 @@
         <v>0.36850058566433558</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -8043,7 +8142,7 @@
         <v>0.27939009511376339</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -8063,7 +8162,7 @@
         <v>0.1395636766766728</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -8083,7 +8182,7 @@
         <v>0.19475125391849529</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -8103,7 +8202,7 @@
         <v>0.27104990204808549</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -8123,7 +8222,7 @@
         <v>0.14493509721969841</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -8143,7 +8242,7 @@
         <v>0.16463114128681</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -8163,7 +8262,7 @@
         <v>9.2255864718370648E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -8183,7 +8282,7 @@
         <v>0.36239224179662199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -8203,7 +8302,7 @@
         <v>0.23498168823166971</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -8223,7 +8322,7 @@
         <v>0.13063731212505139</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -8243,7 +8342,7 @@
         <v>0.1466405986522489</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -8263,7 +8362,7 @@
         <v>8.6091210077949176E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -8283,7 +8382,7 @@
         <v>9.9976357547655853E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -8303,7 +8402,7 @@
         <v>9.9954111989914329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -8323,7 +8422,7 @@
         <v>0.14229629629629631</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -8343,7 +8442,7 @@
         <v>0.13063731212505139</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -8363,7 +8462,7 @@
         <v>0.124304167539267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -8383,7 +8482,7 @@
         <v>6.304783440433534E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -8403,7 +8502,7 @@
         <v>0.1049365330940331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -8423,7 +8522,7 @@
         <v>0.15831418032786879</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -8443,7 +8542,7 @@
         <v>0.1142348445812892</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -8463,7 +8562,7 @@
         <v>0.17457781290965341</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -8483,7 +8582,7 @@
         <v>0.12543217009475391</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -8503,7 +8602,7 @@
         <v>0.10772757985369261</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -8523,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -8543,7 +8642,7 @@
         <v>6.9288907066038241E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -8563,7 +8662,7 @@
         <v>5.9489646906688107E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -8583,7 +8682,7 @@
         <v>0.1466754261954262</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -8603,7 +8702,7 @@
         <v>9.1410325887953142E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -8623,7 +8722,7 @@
         <v>7.3282013798288262E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -8643,7 +8742,7 @@
         <v>0.2173816992591604</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -8663,7 +8762,7 @@
         <v>0.1981609757692411</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -8683,7 +8782,7 @@
         <v>8.2356833662207113E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -8703,7 +8802,7 @@
         <v>8.8842077609890088E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -8723,7 +8822,7 @@
         <v>8.2985662742142044E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -8743,7 +8842,7 @@
         <v>0.1132579580412016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -8763,7 +8862,7 @@
         <v>0.1247878567655909</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -8783,7 +8882,7 @@
         <v>0.1412938677429639</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -8803,7 +8902,7 @@
         <v>0.1870769092695069</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -8823,7 +8922,7 @@
         <v>0.18645637862896131</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -8843,7 +8942,7 @@
         <v>0.1090110259081018</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -8863,7 +8962,7 @@
         <v>0.1052406417112299</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -8883,7 +8982,7 @@
         <v>0.10308657586006149</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -8903,7 +9002,7 @@
         <v>0.1609095948954955</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -8923,7 +9022,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -8943,7 +9042,7 @@
         <v>0.2479615158444953</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -8963,7 +9062,7 @@
         <v>0.15753582504463151</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -8983,7 +9082,7 @@
         <v>0.14663157894736839</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -9003,7 +9102,7 @@
         <v>0.17371451831023629</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -9023,7 +9122,7 @@
         <v>9.1431393570444275E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -9043,7 +9142,7 @@
         <v>7.8986954756380498E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -9063,7 +9162,7 @@
         <v>0.17840857142857139</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -9083,7 +9182,7 @@
         <v>0.13771382456140349</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -9103,7 +9202,7 @@
         <v>0.1461461864152562</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -9123,7 +9222,7 @@
         <v>0.28481288468964389</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -9143,7 +9242,7 @@
         <v>0.18798722567965939</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -9163,7 +9262,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -9183,7 +9282,7 @@
         <v>0.1169926051150338</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -9203,7 +9302,7 @@
         <v>0.24924061433447101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -9223,7 +9322,7 @@
         <v>0.1703929800925168</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -9243,7 +9342,7 @@
         <v>0.12626387036687861</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -9263,7 +9362,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -9283,7 +9382,7 @@
         <v>0.1926781735393569</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -9303,7 +9402,7 @@
         <v>0.18016310641110381</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -9323,7 +9422,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -9343,7 +9442,7 @@
         <v>0.10951621601564</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -9363,7 +9462,7 @@
         <v>8.9304217820621756E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -9383,7 +9482,7 @@
         <v>0.52370339769753493</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -9403,7 +9502,7 @@
         <v>0.16375401547388779</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -9423,7 +9522,7 @@
         <v>0.29000769230769219</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -9443,7 +9542,7 @@
         <v>0.18868984558275401</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>331</v>
       </c>
@@ -9463,7 +9562,7 @@
         <v>0.14363029996438631</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -9483,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -9503,7 +9602,7 @@
         <v>0.48314494518879397</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -9523,7 +9622,7 @@
         <v>0.1095712291019964</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -9543,7 +9642,7 @@
         <v>0.44727411756433699</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -9563,7 +9662,7 @@
         <v>0.23436478436371361</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -9583,7 +9682,7 @@
         <v>0.1689721458179308</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -9603,7 +9702,7 @@
         <v>8.6126734559481638E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>351</v>
       </c>
@@ -9623,7 +9722,7 @@
         <v>0.30263993670886069</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>354</v>
       </c>
@@ -9643,7 +9742,7 @@
         <v>9.3862898545081341E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -9663,7 +9762,7 @@
         <v>0.30765742574257432</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -9683,7 +9782,7 @@
         <v>0.13161081442256919</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -9703,7 +9802,7 @@
         <v>0.1215808026406726</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -9723,7 +9822,7 @@
         <v>0.1021268924845819</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -9743,7 +9842,7 @@
         <v>0.16596955165692009</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>370</v>
       </c>
@@ -9763,7 +9862,7 @@
         <v>0.19979428745247149</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -9783,7 +9882,7 @@
         <v>8.6212437518020726E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>376</v>
       </c>
@@ -9803,7 +9902,7 @@
         <v>0.1062102768251096</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -9823,7 +9922,7 @@
         <v>0.14975773953488369</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -9843,7 +9942,7 @@
         <v>0.16969410398230089</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -9863,7 +9962,7 @@
         <v>0.14120395683453241</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -9883,7 +9982,7 @@
         <v>0.1215808026406726</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -9903,7 +10002,7 @@
         <v>0.2295192844202899</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -9923,7 +10022,7 @@
         <v>6.9984101039861343E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -9943,7 +10042,7 @@
         <v>7.3321046513078733E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -9963,7 +10062,7 @@
         <v>8.041804091466935E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -9983,7 +10082,7 @@
         <v>0.1024816953161888</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -10003,7 +10102,7 @@
         <v>8.7906157017703615E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>407</v>
       </c>
@@ -10023,7 +10122,7 @@
         <v>6.5214470507426792E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -10043,7 +10142,7 @@
         <v>5.5298145324176928E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>413</v>
       </c>
@@ -10063,7 +10162,7 @@
         <v>7.9154644016579206E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>416</v>
       </c>
@@ -10083,7 +10182,7 @@
         <v>0.10347490817432969</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -10103,7 +10202,7 @@
         <v>4.3892852852852847E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>422</v>
       </c>
@@ -10123,7 +10222,7 @@
         <v>0.1118693634989314</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -10143,7 +10242,7 @@
         <v>6.8926529093213493E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -10163,7 +10262,7 @@
         <v>4.3541225710014952E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -10183,7 +10282,7 @@
         <v>7.3774609651938494E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -10203,7 +10302,7 @@
         <v>9.2008047930532119E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -10223,7 +10322,7 @@
         <v>0.1190168040832352</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -10243,7 +10342,7 @@
         <v>3.9431234968905222E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>441</v>
       </c>
@@ -10263,7 +10362,7 @@
         <v>2.45517166991015E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>444</v>
       </c>
@@ -10283,7 +10382,7 @@
         <v>8.5233806386213917E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>447</v>
       </c>
@@ -10303,7 +10402,7 @@
         <v>5.4031983365192993E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -10323,7 +10422,7 @@
         <v>7.3321046513078733E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -10343,7 +10442,7 @@
         <v>5.8085624195788159E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -10363,7 +10462,7 @@
         <v>6.0396274112409228E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -10383,7 +10482,7 @@
         <v>7.912627831245278E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -10403,7 +10502,7 @@
         <v>0.18630015241418729</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>465</v>
       </c>
@@ -10423,7 +10522,7 @@
         <v>9.4840061891524483E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -10443,7 +10542,7 @@
         <v>7.2222010613429144E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -10463,7 +10562,7 @@
         <v>9.6947422154160287E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>473</v>
       </c>
@@ -10483,7 +10582,7 @@
         <v>0.11402296544142</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>476</v>
       </c>
@@ -10503,7 +10602,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -10523,7 +10622,7 @@
         <v>4.9506846505551927E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -10543,7 +10642,7 @@
         <v>5.084229939245663E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -10563,7 +10662,7 @@
         <v>6.3309889706709865E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -10583,7 +10682,7 @@
         <v>9.6563960396039622E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -10603,7 +10702,7 @@
         <v>9.5394303960725582E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -10623,7 +10722,7 @@
         <v>0.1691732261561433</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -10643,7 +10742,7 @@
         <v>0.10400348505885899</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -10663,7 +10762,7 @@
         <v>6.0981536774114907E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -10683,7 +10782,7 @@
         <v>0.14750154151068051</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -10703,7 +10802,7 @@
         <v>0.1124924277689741</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -10723,7 +10822,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -10743,7 +10842,7 @@
         <v>0.13471264492282251</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -10763,7 +10862,7 @@
         <v>6.4664933135215444E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -10793,17 +10892,17 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>588</v>
@@ -10827,7 +10926,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10856,7 +10955,7 @@
         <v>2.1155568923383878</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10885,7 +10984,7 @@
         <v>1.1268230316922341</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -10914,7 +11013,7 @@
         <v>4.1581105285733706</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10943,7 +11042,7 @@
         <v>4.0866804533359504</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10972,7 +11071,7 @@
         <v>3.8233980840262829</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11001,7 +11100,7 @@
         <v>4.1406662280574764</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -11030,7 +11129,7 @@
         <v>3.886992344807946</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -11059,7 +11158,7 @@
         <v>3.842258772188591</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -11088,7 +11187,7 @@
         <v>4.0043924939369049</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -11117,7 +11216,7 @@
         <v>3.911988791790407</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -11146,7 +11245,7 @@
         <v>0.36209999220296341</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -11175,7 +11274,7 @@
         <v>14.019805098123159</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -11204,7 +11303,7 @@
         <v>4.3111971650543719</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -11233,7 +11332,7 @@
         <v>2.0135796589621791</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -11262,7 +11361,7 @@
         <v>4.1314650263619246</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -11291,7 +11390,7 @@
         <v>13.110320143246691</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -11320,7 +11419,7 @@
         <v>3.859260605593648</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -11349,7 +11448,7 @@
         <v>4.1899016165523646</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -11378,7 +11477,7 @@
         <v>4.0526894677906586</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -11407,7 +11506,7 @@
         <v>4.0691986316461266</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -11436,7 +11535,7 @@
         <v>4.1440691909565386</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -11465,7 +11564,7 @@
         <v>4.4074540332851031</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -11494,7 +11593,7 @@
         <v>3.8993624837028311</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -11523,7 +11622,7 @@
         <v>4.1432968733280786</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -11552,7 +11651,7 @@
         <v>3.8614988431059101</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -11581,7 +11680,7 @@
         <v>4.3223877718887573</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -11610,7 +11709,7 @@
         <v>2.6318990910005819</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -11639,7 +11738,7 @@
         <v>3.9393458129284</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -11668,7 +11767,7 @@
         <v>4.1516068097996106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -11697,7 +11796,7 @@
         <v>4.2367046908364836</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11726,7 +11825,7 @@
         <v>9.4572103948076677E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -11755,7 +11854,7 @@
         <v>4.1110144785122742</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -11784,7 +11883,7 @@
         <v>3.78836138021143</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -11813,7 +11912,7 @@
         <v>5.0341112918077302</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11842,7 +11941,7 @@
         <v>1.027329464466074</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -11871,7 +11970,7 @@
         <v>4.516559503737116</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -11900,7 +11999,7 @@
         <v>4.271617691424983</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -11929,7 +12028,7 @@
         <v>0.94361238087170884</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -11958,7 +12057,7 @@
         <v>3.9628973693477918</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -11987,7 +12086,7 @@
         <v>4.1926574959457366</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -12016,7 +12115,7 @@
         <v>4.2805169754397063</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -12045,7 +12144,7 @@
         <v>4.4982394216330519</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -12074,7 +12173,7 @@
         <v>4.4993875125854936</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -12103,7 +12202,7 @@
         <v>1.486172302892762</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -12132,7 +12231,7 @@
         <v>4.0173464214892673</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -12161,7 +12260,7 @@
         <v>2.090925571582233</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -12190,7 +12289,7 @@
         <v>4.1486572828301282</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -12219,7 +12318,7 @@
         <v>3.9053485383912729</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -12248,7 +12347,7 @@
         <v>0.99690492842030376</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -12277,7 +12376,7 @@
         <v>4.2540531536476474</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -12306,7 +12405,7 @@
         <v>6.6805996910906256</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -12335,7 +12434,7 @@
         <v>7.3467540418231589</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -12364,7 +12463,7 @@
         <v>6.388960334758325</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -12393,7 +12492,7 @@
         <v>20.168103258019151</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -12422,7 +12521,7 @@
         <v>6.998722966084129</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -12451,7 +12550,7 @@
         <v>5.6329328232025029</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -12480,7 +12579,7 @@
         <v>6.5357359416603389</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -12509,7 +12608,7 @@
         <v>6.9143771086523511</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -12538,7 +12637,7 @@
         <v>3.9421061597062081</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -12567,7 +12666,7 @@
         <v>5.4533675408156572</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -12596,7 +12695,7 @@
         <v>5.2365522740706183</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -12625,7 +12724,7 @@
         <v>6.2263559649779001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -12654,7 +12753,7 @@
         <v>6.1421261778445766</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -12683,7 +12782,7 @@
         <v>6.8663548164775259</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -12712,7 +12811,7 @@
         <v>8.8176430745547236</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -12741,7 +12840,7 @@
         <v>2.6354599293911649</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -12764,7 +12863,7 @@
         <v>6.5501738749288441</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -12793,7 +12892,7 @@
         <v>4.5156636524168068</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -12822,7 +12921,7 @@
         <v>6.996858750605619</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -12851,7 +12950,7 @@
         <v>7.1054202109035582</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -12880,7 +12979,7 @@
         <v>6.1924283281736026</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -12909,7 +13008,7 @@
         <v>9.2379591847739189</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -12938,7 +13037,7 @@
         <v>9.8362897704940888</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -12967,7 +13066,7 @@
         <v>10.204066125249851</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -12996,7 +13095,7 @@
         <v>4.9840102624849152</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -13025,7 +13124,7 @@
         <v>24.956759038324559</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -13054,7 +13153,7 @@
         <v>10.273491131699901</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -13083,7 +13182,7 @@
         <v>16.724171460763721</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -13112,7 +13211,7 @@
         <v>13.24842396167641</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -13141,7 +13240,7 @@
         <v>9.2509103063927487</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -13170,7 +13269,7 @@
         <v>4.1640697922125618</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -13199,7 +13298,7 @@
         <v>1.8547641880031931</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -13228,7 +13327,7 @@
         <v>8.5110047709059149</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -13257,7 +13356,7 @@
         <v>10.22043296419818</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -13286,7 +13385,7 @@
         <v>10.308655741613331</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -13315,7 +13414,7 @@
         <v>2.1393961342302039</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -13344,7 +13443,7 @@
         <v>2.137701485593924</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -13373,7 +13472,7 @@
         <v>1.763382232970951</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -13402,7 +13501,7 @@
         <v>2.8741035388196989</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -13431,7 +13530,7 @@
         <v>2.2489008121324781</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -13460,7 +13559,7 @@
         <v>2.157310590481567</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -13489,7 +13588,7 @@
         <v>6.154649243716853</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -13518,7 +13617,7 @@
         <v>2.1698907297093979</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -13547,7 +13646,7 @@
         <v>2.260499302501437</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -13576,7 +13675,7 @@
         <v>0.42929724719335982</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -13605,7 +13704,7 @@
         <v>2.0899903456269739</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -13634,7 +13733,7 @@
         <v>2.101664051752743</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -13663,7 +13762,7 @@
         <v>2.026659840825241</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -13692,7 +13791,7 @@
         <v>2.2464523102640972</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -13721,7 +13820,7 @@
         <v>6.3154786442483202</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -13750,7 +13849,7 @@
         <v>2.0646874589552948</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -13779,7 +13878,7 @@
         <v>7.3092166207665166</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -13808,7 +13907,7 @@
         <v>6.861129602865808</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -13837,7 +13936,7 @@
         <v>2.1697217479887181</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -13866,7 +13965,7 @@
         <v>2.2924030403032449</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -13895,7 +13994,7 @@
         <v>1.9251024588793091</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -13924,7 +14023,7 @@
         <v>2.261297191789593</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -13953,7 +14052,7 @@
         <v>2.2998959312547358</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -13982,7 +14081,7 @@
         <v>7.5088511057811624</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -14011,7 +14110,7 @@
         <v>2.217297704526874</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -14040,7 +14139,7 @@
         <v>2.4627596962758078</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -14069,7 +14168,7 @@
         <v>2.1625717136942502</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -14098,7 +14197,7 @@
         <v>2.1537311636830809</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>331</v>
       </c>
@@ -14127,7 +14226,7 @@
         <v>2.406546605056219</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -14156,7 +14255,7 @@
         <v>9.7561640265018225E-13</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -14185,7 +14284,7 @@
         <v>2.2797130496232789</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -14214,7 +14313,7 @@
         <v>3.8066723671466329</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -14243,7 +14342,7 @@
         <v>2.184869773755628</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -14272,7 +14371,7 @@
         <v>2.2583706371076788</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -14301,7 +14400,7 @@
         <v>2.229642554224589</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -14330,7 +14429,7 @@
         <v>0.22331812797583481</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>351</v>
       </c>
@@ -14359,7 +14458,7 @@
         <v>6.2663715335338166</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>354</v>
       </c>
@@ -14388,7 +14487,7 @@
         <v>2.2796428658161378</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -14417,7 +14516,7 @@
         <v>1.4226106281360791</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -14446,7 +14545,7 @@
         <v>12.21128470099241</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -14475,7 +14574,7 @@
         <v>13.17869513290244</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -14504,7 +14603,7 @@
         <v>13.23267302886565</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -14533,7 +14632,7 @@
         <v>14.009465006563749</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>370</v>
       </c>
@@ -14562,7 +14661,7 @@
         <v>7.6025765365034514</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -14591,7 +14690,7 @@
         <v>22.039289233922709</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>376</v>
       </c>
@@ -14620,7 +14719,7 @@
         <v>12.24427994933621</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -14649,7 +14748,7 @@
         <v>12.56677525908187</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -14678,7 +14777,7 @@
         <v>13.948834376803861</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -14707,7 +14806,7 @@
         <v>13.253607487674151</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -14736,7 +14835,7 @@
         <v>14.218034986938971</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -14765,7 +14864,7 @@
         <v>6.6117545468464396</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -14794,7 +14893,7 @@
         <v>1.8072373607364329</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -14823,7 +14922,7 @@
         <v>6.3951335737538422</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -14852,7 +14951,7 @@
         <v>6.0209487668340564</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -14881,7 +14980,7 @@
         <v>6.3059780367839497</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -14910,7 +15009,7 @@
         <v>6.4505857456464586</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>407</v>
       </c>
@@ -14939,7 +15038,7 @@
         <v>7.0290602241337519</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -14968,7 +15067,7 @@
         <v>0.83466182420492052</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>413</v>
       </c>
@@ -14997,7 +15096,7 @@
         <v>0.70784264331831181</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>416</v>
       </c>
@@ -15026,7 +15125,7 @@
         <v>8.4484955085730373</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -15055,7 +15154,7 @@
         <v>2.5163980880463259</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>422</v>
       </c>
@@ -15084,7 +15183,7 @@
         <v>6.3081786169984309</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -15113,7 +15212,7 @@
         <v>3.2767634594594481</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -15142,7 +15241,7 @@
         <v>6.0510927548759446</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -15171,7 +15270,7 @@
         <v>18.858714287334649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -15200,7 +15299,7 @@
         <v>3.276175788720634</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -15229,7 +15328,7 @@
         <v>6.2085904990314091</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -15258,7 +15357,7 @@
         <v>4.023760571942768</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>441</v>
       </c>
@@ -15287,7 +15386,7 @@
         <v>2.1223479369590921</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>444</v>
       </c>
@@ -15316,7 +15415,7 @@
         <v>6.5503885271262758</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>447</v>
       </c>
@@ -15345,7 +15444,7 @@
         <v>4.1498245202039241</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -15374,7 +15473,7 @@
         <v>6.7532644408235427</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -15403,7 +15502,7 @@
         <v>9.0045948027564844</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -15432,7 +15531,7 @@
         <v>8.8124734361351056</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -15461,7 +15560,7 @@
         <v>5.7501296020509702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -15490,7 +15589,7 @@
         <v>6.2152973075258302</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>465</v>
       </c>
@@ -15519,7 +15618,7 @@
         <v>2.426153503075227</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -15548,7 +15647,7 @@
         <v>8.494409288498332</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -15577,7 +15676,7 @@
         <v>12.97897485353811</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>473</v>
       </c>
@@ -15606,7 +15705,7 @@
         <v>34.007173587676533</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>476</v>
       </c>
@@ -15635,7 +15734,7 @@
         <v>2.2699984511315021</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -15664,7 +15763,7 @@
         <v>2.1338159165438508</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -15693,7 +15792,7 @@
         <v>0.40332489207845129</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -15722,7 +15821,7 @@
         <v>1.905594884278204</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -15751,7 +15850,7 @@
         <v>2.1860426066187122</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -15780,7 +15879,7 @@
         <v>2.076335638101956</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -15809,7 +15908,7 @@
         <v>2.0188192289906821</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -15838,7 +15937,7 @@
         <v>5.3649643096206114</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -15867,7 +15966,7 @@
         <v>5.3048867469041214</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -15896,7 +15995,7 @@
         <v>1.7774589582490861</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -15925,7 +16024,7 @@
         <v>8.3628454959191121</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -15954,7 +16053,7 @@
         <v>2.1586700260486218</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -15983,7 +16082,7 @@
         <v>2.0891273982921899</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -16012,7 +16111,7 @@
         <v>6.115372792187026</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -16051,17 +16150,17 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>588</v>
@@ -16085,7 +16184,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16114,7 +16213,7 @@
         <v>2.4132350704928802</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -16143,7 +16242,7 @@
         <v>2.0864845301823181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -16172,7 +16271,7 @@
         <v>2.1373748014660841</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -16201,7 +16300,7 @@
         <v>2.1980464608054811</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -16230,7 +16329,7 @@
         <v>2.2123059868896431</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -16259,7 +16358,7 @@
         <v>2.0001645005178501</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -16288,7 +16387,7 @@
         <v>2.1798610607315281</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -16317,7 +16416,7 @@
         <v>2.0296518669107262</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -16346,7 +16445,7 @@
         <v>2.052337503348816</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -16375,7 +16474,7 @@
         <v>2.0269269943601982</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -16404,7 +16503,7 @@
         <v>2.2246719980853151</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -16433,7 +16532,7 @@
         <v>1.963105010163938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -16462,7 +16561,7 @@
         <v>1.934852252191307</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -16491,7 +16590,7 @@
         <v>2.3355726648543542</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -16520,7 +16619,7 @@
         <v>1.959879112761491</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -16549,7 +16648,7 @@
         <v>1.7860315133710769</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -16578,7 +16677,7 @@
         <v>2.1828409934494299</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -16607,7 +16706,7 @@
         <v>2.0071865796170232</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -16636,7 +16735,7 @@
         <v>1.9372201659501529</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -16665,7 +16764,7 @@
         <v>2.080318973133195</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -16694,7 +16793,7 @@
         <v>2.16562679031217</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -16723,7 +16822,7 @@
         <v>1.8238110825324401</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -16752,7 +16851,7 @@
         <v>1.947792404108704</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -16781,7 +16880,7 @@
         <v>2.041653507998666</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -16810,7 +16909,7 @@
         <v>2.1020619553260542</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -16839,7 +16938,7 @@
         <v>2.3381574158004019</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16868,7 +16967,7 @@
         <v>0.51328337403381807</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -16897,7 +16996,7 @@
         <v>1.9075626205856291</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -16926,7 +17025,7 @@
         <v>2.2009390013838912</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -16955,7 +17054,7 @@
         <v>2.8791080944162228</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -16984,7 +17083,7 @@
         <v>2.4915628569565089</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -17013,7 +17112,7 @@
         <v>1.936902128371871</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -17042,7 +17141,7 @@
         <v>2.0697046816926319</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -17071,7 +17170,7 @@
         <v>2.1687291573362342</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -17100,7 +17199,7 @@
         <v>2.00707171978959</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -17129,7 +17228,7 @@
         <v>2.107151337215265</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -17158,7 +17257,7 @@
         <v>2.2190462466737308</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -17187,7 +17286,7 @@
         <v>2.2004550910788709</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -17216,7 +17315,7 @@
         <v>2.0604900081456972</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -17245,7 +17344,7 @@
         <v>1.9765224934504091</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -17274,7 +17373,7 @@
         <v>1.551337126082807</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -17303,7 +17402,7 @@
         <v>1.9180060242237049</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -17332,7 +17431,7 @@
         <v>1.8025846909044609</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -17361,7 +17460,7 @@
         <v>1.8344948220728079</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -17390,7 +17489,7 @@
         <v>2.1921565979572311</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -17419,7 +17518,7 @@
         <v>2.2726644775330822</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -17448,7 +17547,7 @@
         <v>1.7997299964263971</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -17477,7 +17576,7 @@
         <v>2.303203099497825</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -17506,7 +17605,7 @@
         <v>1.9121294688205659</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -17535,7 +17634,7 @@
         <v>1.9003655207805119</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -17564,7 +17663,7 @@
         <v>1.2098201298619711</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -17593,7 +17692,7 @@
         <v>1.228285429754727</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -17622,7 +17721,7 @@
         <v>1.1131660613954319</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -17651,7 +17750,7 @@
         <v>48.995722530098938</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -17680,7 +17779,7 @@
         <v>1.220803047266108</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -17709,7 +17808,7 @@
         <v>1.382231624817716</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -17738,7 +17837,7 @@
         <v>1.118944026243117</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -17767,7 +17866,7 @@
         <v>1.202576782881664</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -17796,7 +17895,7 @@
         <v>0.83918256046654316</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -17825,7 +17924,7 @@
         <v>1.765529062042718</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -17854,7 +17953,7 @@
         <v>1.4193784463457659</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -17883,7 +17982,7 @@
         <v>1.22714242793451</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -17912,7 +18011,7 @@
         <v>1.7769439549900361</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -17941,7 +18040,7 @@
         <v>1.2373200975648171</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -17970,7 +18069,7 @@
         <v>1.4053183440991139</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -17999,7 +18098,7 @@
         <v>1.344668987389471</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -18022,7 +18121,7 @@
         <v>1.2523529586995359</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -18051,7 +18150,7 @@
         <v>1.415174507824694</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -18080,7 +18179,7 @@
         <v>0.97994888476335229</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -18109,7 +18208,7 @@
         <v>1.138140009805318</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -18138,7 +18237,7 @@
         <v>1.2243411001769671</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -18167,7 +18266,7 @@
         <v>12.779427294922259</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -18196,7 +18295,7 @@
         <v>3.940469001923844</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -18225,7 +18324,7 @@
         <v>3.2694688588997329</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -18254,7 +18353,7 @@
         <v>2.3478047340624162</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -18283,7 +18382,7 @@
         <v>5.073442725629576</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -18312,7 +18411,7 @@
         <v>2.8297850262564901</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -18341,7 +18440,7 @@
         <v>2.9015461921723729</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -18370,7 +18469,7 @@
         <v>2.736080929030396</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -18399,7 +18498,7 @@
         <v>3.5175905876336442</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -18428,7 +18527,7 @@
         <v>1.9003484771997781</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -18457,7 +18556,7 @@
         <v>3.2457523451235879</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -18486,7 +18585,7 @@
         <v>3.2333476506759209</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -18515,7 +18614,7 @@
         <v>3.278861943321389</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -18544,7 +18643,7 @@
         <v>3.3757183365205359</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -18573,7 +18672,7 @@
         <v>5.7251928931658611</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -18602,7 +18701,7 @@
         <v>6.0821083099953599</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -18631,7 +18730,7 @@
         <v>0.25894850205248637</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -18660,7 +18759,7 @@
         <v>5.835548835614885</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -18689,7 +18788,7 @@
         <v>2.0168887074304309</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -18718,7 +18817,7 @@
         <v>6.018739824806933</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -18747,7 +18846,7 @@
         <v>16.424121997162239</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -18776,7 +18875,7 @@
         <v>6.2128151517860486</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -18805,7 +18904,7 @@
         <v>5.7486926830582892</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -18834,7 +18933,7 @@
         <v>1.9826055012226631</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -18863,7 +18962,7 @@
         <v>5.3711043581314399</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -18892,7 +18991,7 @@
         <v>5.2991001064194041</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -18921,7 +19020,7 @@
         <v>5.601088483196631</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -18950,7 +19049,7 @@
         <v>6.0276247148904813</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -18979,7 +19078,7 @@
         <v>15.22814859724183</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -19008,7 +19107,7 @@
         <v>5.530792454120915</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -19037,7 +19136,7 @@
         <v>15.74809083845339</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -19066,7 +19165,7 @@
         <v>16.23716023939156</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -19095,7 +19194,7 @@
         <v>5.3185205500759354</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -19124,7 +19223,7 @@
         <v>5.7292442023208192</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -19153,7 +19252,7 @@
         <v>6.1468817807719667</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -19182,7 +19281,7 @@
         <v>5.7145891421525974</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -19211,7 +19310,7 @@
         <v>5.2799313685073006</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -19240,7 +19339,7 @@
         <v>15.76266685108374</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -19269,7 +19368,7 @@
         <v>2.1690876051463488</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -19298,7 +19397,7 @@
         <v>11.39502884161479</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -19327,7 +19426,7 @@
         <v>6.2943931526061014</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -19356,7 +19455,7 @@
         <v>5.0792016450875694</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>331</v>
       </c>
@@ -19385,7 +19484,7 @@
         <v>5.429187245517789</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -19414,7 +19513,7 @@
         <v>9.7435773068673504E-13</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -19443,7 +19542,7 @@
         <v>5.7548616301972473</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -19472,7 +19571,7 @@
         <v>5.6927000042859977</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -19501,7 +19600,7 @@
         <v>13.81374602131304</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -19530,7 +19629,7 @@
         <v>5.4504839539803012</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -19559,7 +19658,7 @@
         <v>5.6727065547243436</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -19588,7 +19687,7 @@
         <v>4.9016837571534921</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>351</v>
       </c>
@@ -19617,7 +19716,7 @@
         <v>2.1488616676250172</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>354</v>
       </c>
@@ -19646,7 +19745,7 @@
         <v>5.1810518753015824</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -19675,7 +19774,7 @@
         <v>2.0202939695003419</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -19704,7 +19803,7 @@
         <v>4.5250924731145759</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -19733,7 +19832,7 @@
         <v>5.524559363975122</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -19762,7 +19861,7 @@
         <v>5.2577517976057351</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -19791,7 +19890,7 @@
         <v>6.0245550115034163</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>370</v>
       </c>
@@ -19820,7 +19919,7 @@
         <v>1.475085380378057</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -19849,7 +19948,7 @@
         <v>10.68072128060528</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>376</v>
       </c>
@@ -19878,7 +19977,7 @@
         <v>5.4657295283865386</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -19907,7 +20006,7 @@
         <v>5.5938355026769164</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -19936,7 +20035,7 @@
         <v>5.7042016602700256</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -19965,7 +20064,7 @@
         <v>5.4908914097499331</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -19994,7 +20093,7 @@
         <v>5.4131184731800266</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -20023,7 +20122,7 @@
         <v>15.59018723337033</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -20052,7 +20151,7 @@
         <v>14.623037203603801</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -20081,7 +20180,7 @@
         <v>17.532419608028128</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -20110,7 +20209,7 @@
         <v>14.915049259173401</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -20139,7 +20238,7 @@
         <v>9.2973164315957142</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -20168,7 +20267,7 @@
         <v>16.016806170450739</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>407</v>
       </c>
@@ -20197,7 +20296,7 @@
         <v>4.9067141506395204</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -20226,7 +20325,7 @@
         <v>10.445885499167879</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>413</v>
       </c>
@@ -20255,7 +20354,7 @@
         <v>11.41564293512692</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>416</v>
       </c>
@@ -20284,7 +20383,7 @@
         <v>14.627961589405279</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -20313,7 +20412,7 @@
         <v>18.164500150861851</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>422</v>
       </c>
@@ -20342,7 +20441,7 @@
         <v>13.880408690881969</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -20371,7 +20470,7 @@
         <v>14.25802633346083</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -20400,7 +20499,7 @@
         <v>13.56370065854701</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -20429,7 +20528,7 @@
         <v>11.81514060861072</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -20458,7 +20557,7 @@
         <v>3.2328995457445928</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -20487,7 +20586,7 @@
         <v>15.037845918538091</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -20516,7 +20615,7 @@
         <v>15.013090190230541</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>441</v>
       </c>
@@ -20545,7 +20644,7 @@
         <v>9.1157947504681438</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>444</v>
       </c>
@@ -20574,7 +20673,7 @@
         <v>15.226070134726321</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>447</v>
       </c>
@@ -20603,7 +20702,7 @@
         <v>15.17263149574255</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -20632,7 +20731,7 @@
         <v>14.061556104397811</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -20661,7 +20760,7 @@
         <v>20.551807271617431</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -20690,7 +20789,7 @@
         <v>11.870787170327549</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -20719,7 +20818,7 @@
         <v>10.41569674100703</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -20748,7 +20847,7 @@
         <v>15.5903790531066</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>465</v>
       </c>
@@ -20777,7 +20876,7 @@
         <v>26.135705366498541</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -20806,7 +20905,7 @@
         <v>16.604000971722069</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -20835,7 +20934,7 @@
         <v>15.93577803490061</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>473</v>
       </c>
@@ -20864,7 +20963,7 @@
         <v>50.707980133764231</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>476</v>
       </c>
@@ -20893,7 +20992,7 @@
         <v>5.8948575633571929</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -20922,7 +21021,7 @@
         <v>5.7491487552884886</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -20951,7 +21050,7 @@
         <v>10.640401712941051</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -20980,7 +21079,7 @@
         <v>14.535891531173</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -21009,7 +21108,7 @@
         <v>19.737085765706041</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -21038,7 +21137,7 @@
         <v>6.2215393908668277</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -21067,7 +21166,7 @@
         <v>5.9128796815633073</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -21096,7 +21195,7 @@
         <v>12.57392138589424</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -21125,7 +21224,7 @@
         <v>22.959221200811161</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -21154,7 +21253,7 @@
         <v>2.216201627168898</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -21183,7 +21282,7 @@
         <v>8.109175672721225</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -21212,7 +21311,7 @@
         <v>5.5597246370747069</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -21241,7 +21340,7 @@
         <v>6.1032460041068246</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -21270,7 +21369,7 @@
         <v>15.50955617494</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -21309,17 +21408,17 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>588</v>
@@ -21343,7 +21442,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -21372,7 +21471,7 @@
         <v>38.47612454093467</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -21401,7 +21500,7 @@
         <v>45.733247792432117</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -21430,7 +21529,7 @@
         <v>45.212518161781567</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -21459,7 +21558,7 @@
         <v>45.365232858530113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -21488,7 +21587,7 @@
         <v>32.43720303532286</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -21517,7 +21616,7 @@
         <v>49.759747630067942</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -21546,7 +21645,7 @@
         <v>47.528540957402761</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -21575,7 +21674,7 @@
         <v>50.846425295546332</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -21604,7 +21703,7 @@
         <v>47.668002133895421</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -21633,7 +21732,7 @@
         <v>33.380508141210257</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -21662,7 +21761,7 @@
         <v>51.251990048551058</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -21691,7 +21790,7 @@
         <v>50.879831308069441</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -21720,7 +21819,7 @@
         <v>52.097400904702297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -21749,7 +21848,7 @@
         <v>29.847387473679699</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -21778,7 +21877,7 @@
         <v>66.956005923817074</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -21807,7 +21906,7 @@
         <v>50.609152037065812</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -21836,7 +21935,7 @@
         <v>62.414689029192857</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -21865,7 +21964,7 @@
         <v>51.137148189621968</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -21894,7 +21993,7 @@
         <v>46.646205471267351</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -21923,7 +22022,7 @@
         <v>52.189176122668492</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -21952,7 +22051,7 @@
         <v>45.542671065799517</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -21981,7 +22080,7 @@
         <v>71.331280731269686</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -22010,7 +22109,7 @@
         <v>48.669607926156438</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -22039,7 +22138,7 @@
         <v>51.142535698763012</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -22068,7 +22167,7 @@
         <v>31.59126370249588</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -22097,7 +22196,7 @@
         <v>49.213441017925099</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -22126,7 +22225,7 @@
         <v>54.074892880797123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -22155,7 +22254,7 @@
         <v>34.908189376105632</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -22184,7 +22283,7 @@
         <v>45.891135183061593</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -22213,7 +22312,7 @@
         <v>67.597632013420693</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -22242,7 +22341,7 @@
         <v>20.221534850213171</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -22271,7 +22370,7 @@
         <v>48.282132666455198</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -22300,7 +22399,7 @@
         <v>46.907951591615401</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -22329,7 +22428,7 @@
         <v>45.052278409197477</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -22358,7 +22457,7 @@
         <v>17.8626150729167</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -22387,7 +22486,7 @@
         <v>46.795114482160329</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -22416,7 +22515,7 @@
         <v>44.234771401086427</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -22445,7 +22544,7 @@
         <v>46.774285877120391</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -22474,7 +22573,7 @@
         <v>46.517386239885909</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -22503,7 +22602,7 @@
         <v>45.694380092189093</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -22532,7 +22631,7 @@
         <v>50.134087668235168</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -22561,7 +22660,7 @@
         <v>49.910679680291899</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -22590,7 +22689,7 @@
         <v>49.395308308129991</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -22619,7 +22718,7 @@
         <v>50.389408514591587</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -22648,7 +22747,7 @@
         <v>43.80273896611584</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -22677,7 +22776,7 @@
         <v>32.479103177659248</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -22706,7 +22805,7 @@
         <v>50.173000952080997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -22735,7 +22834,7 @@
         <v>50.704690177660368</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -22764,7 +22863,7 @@
         <v>37.237134176885917</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -22793,7 +22892,7 @@
         <v>46.97771429030125</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -22822,7 +22921,7 @@
         <v>133.77010319764079</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -22851,7 +22950,7 @@
         <v>126.6063379120115</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -22880,7 +22979,7 @@
         <v>133.59083344270391</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -22909,7 +23008,7 @@
         <v>85.074203756090313</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -22938,7 +23037,7 @@
         <v>130.59080438030909</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -22967,7 +23066,7 @@
         <v>103.1844596638704</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -22996,7 +23095,7 @@
         <v>131.43662842289251</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -23025,7 +23124,7 @@
         <v>133.15032329633709</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -23054,7 +23153,7 @@
         <v>208.54062854489601</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -23083,7 +23182,7 @@
         <v>198.91323120720571</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -23112,7 +23211,7 @@
         <v>106.924114145768</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -23141,7 +23240,7 @@
         <v>145.5386785429022</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -23170,7 +23269,7 @@
         <v>107.59855774287951</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -23199,7 +23298,7 @@
         <v>137.94099956827839</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -23228,7 +23327,7 @@
         <v>73.979786708676585</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -23257,7 +23356,7 @@
         <v>43.448047927092126</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -23280,7 +23379,7 @@
         <v>130.40338903637621</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -23309,7 +23408,7 @@
         <v>110.2615402182139</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -23338,7 +23437,7 @@
         <v>65.055256693659885</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -23367,7 +23466,7 @@
         <v>141.47743133953759</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -23396,7 +23495,7 @@
         <v>124.0058397247811</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -23425,7 +23524,7 @@
         <v>122.0616654661651</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -23454,7 +23553,7 @@
         <v>47.390505380957599</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -23483,7 +23582,7 @@
         <v>66.145450014412049</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -23512,7 +23611,7 @@
         <v>41.659187623293221</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -23541,7 +23640,7 @@
         <v>49.004229425868132</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -23570,7 +23669,7 @@
         <v>87.541214821607795</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -23599,7 +23698,7 @@
         <v>66.514517820436225</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -23628,7 +23727,7 @@
         <v>106.5968773208421</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -23657,7 +23756,7 @@
         <v>99.776344308038418</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -23686,7 +23785,7 @@
         <v>57.011813916109787</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -23715,7 +23814,7 @@
         <v>68.70524891024381</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -23744,7 +23843,7 @@
         <v>68.689745347579958</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -23773,7 +23872,7 @@
         <v>74.144701700980747</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -23802,7 +23901,7 @@
         <v>73.241486625563951</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -23831,7 +23930,7 @@
         <v>65.865286410367148</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -23860,7 +23959,7 @@
         <v>34.733765713516789</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -23889,7 +23988,7 @@
         <v>88.085224847123015</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -23918,7 +24017,7 @@
         <v>62.797679886744078</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -23947,7 +24046,7 @@
         <v>57.712188901257647</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -23976,7 +24075,7 @@
         <v>69.469450909672361</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -24005,7 +24104,7 @@
         <v>83.726933626962804</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -24034,7 +24133,7 @@
         <v>22.256313732753139</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -24063,7 +24162,7 @@
         <v>72.133508128264367</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -24092,7 +24191,7 @@
         <v>54.351188137439827</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -24121,7 +24220,7 @@
         <v>74.805268481338175</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -24150,7 +24249,7 @@
         <v>34.644270550092223</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -24179,7 +24278,7 @@
         <v>35.192343345140927</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -24208,7 +24307,7 @@
         <v>34.587500428822558</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -24237,7 +24336,7 @@
         <v>84.603383992135889</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -24266,7 +24365,7 @@
         <v>33.051257713929033</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -24295,7 +24394,7 @@
         <v>90.215126891471058</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -24324,7 +24423,7 @@
         <v>86.112797439866554</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -24353,7 +24452,7 @@
         <v>34.662160287451456</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -24382,7 +24481,7 @@
         <v>68.124257062966535</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -24411,7 +24510,7 @@
         <v>32.75947544115413</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -24440,7 +24539,7 @@
         <v>73.291806602964527</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>313</v>
       </c>
@@ -24469,7 +24568,7 @@
         <v>61.47697614430372</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -24498,7 +24597,7 @@
         <v>79.180673423500295</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -24527,7 +24626,7 @@
         <v>68.16592099636334</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -24556,7 +24655,7 @@
         <v>69.408416956019238</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -24585,7 +24684,7 @@
         <v>33.892661829493441</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -24614,7 +24713,7 @@
         <v>64.952073361730825</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>331</v>
       </c>
@@ -24643,7 +24742,7 @@
         <v>66.512959442430088</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -24672,7 +24771,7 @@
         <v>1.01933399281219E-12</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -24701,7 +24800,7 @@
         <v>36.037011453037501</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -24730,7 +24829,7 @@
         <v>90.692696059876951</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -24759,7 +24858,7 @@
         <v>67.549698850111653</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -24788,7 +24887,7 @@
         <v>34.754589193127863</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -24817,7 +24916,7 @@
         <v>63.302393896397398</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -24846,7 +24945,7 @@
         <v>50.45387720930264</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>351</v>
       </c>
@@ -24875,7 +24974,7 @@
         <v>37.634526934832998</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>354</v>
       </c>
@@ -24904,7 +25003,7 @@
         <v>68.007083940340792</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -24933,7 +25032,7 @@
         <v>33.790336053229808</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -24962,7 +25061,7 @@
         <v>90.391090611370331</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -24991,7 +25090,7 @@
         <v>85.063998849672927</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -25020,7 +25119,7 @@
         <v>82.644635831761804</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -25049,7 +25148,7 @@
         <v>80.376316026818927</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>370</v>
       </c>
@@ -25078,7 +25177,7 @@
         <v>79.202422287720751</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -25107,7 +25206,7 @@
         <v>98.916990269402703</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>376</v>
       </c>
@@ -25136,7 +25235,7 @@
         <v>87.466464386707585</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -25165,7 +25264,7 @@
         <v>88.65150328159055</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -25194,7 +25293,7 @@
         <v>86.463657329318096</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -25223,7 +25322,7 @@
         <v>85.751124069838454</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -25252,7 +25351,7 @@
         <v>89.6093477234039</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -25281,7 +25380,7 @@
         <v>136.75933318802601</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -25310,7 +25409,7 @@
         <v>136.46125098782611</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -25339,7 +25438,7 @@
         <v>133.43995359090971</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -25368,7 +25467,7 @@
         <v>130.38078135810869</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -25397,7 +25496,7 @@
         <v>130.83322261094199</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -25426,7 +25525,7 @@
         <v>136.69872511342959</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>407</v>
       </c>
@@ -25455,7 +25554,7 @@
         <v>60.771476092477293</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -25484,7 +25583,7 @@
         <v>173.95598815209669</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>413</v>
       </c>
@@ -25513,7 +25612,7 @@
         <v>174.09422038215959</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>416</v>
       </c>
@@ -25542,7 +25641,7 @@
         <v>135.7497656543791</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -25571,7 +25670,7 @@
         <v>68.826658115314245</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>422</v>
       </c>
@@ -25600,7 +25699,7 @@
         <v>148.83618804939431</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -25629,7 +25728,7 @@
         <v>129.2040337916726</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -25658,7 +25757,7 @@
         <v>139.34344226938671</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -25687,7 +25786,7 @@
         <v>310.7973055712506</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -25716,7 +25815,7 @@
         <v>84.366518494379932</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -25745,7 +25844,7 @@
         <v>133.6510820848913</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -25774,7 +25873,7 @@
         <v>139.66228844302009</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>441</v>
       </c>
@@ -25803,7 +25902,7 @@
         <v>37.026859271165137</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>444</v>
       </c>
@@ -25832,7 +25931,7 @@
         <v>129.91519749902159</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>447</v>
       </c>
@@ -25861,7 +25960,7 @@
         <v>144.50449864842651</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -25890,7 +25989,7 @@
         <v>122.9594721011801</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -25919,7 +26018,7 @@
         <v>92.555913991622901</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -25948,7 +26047,7 @@
         <v>139.63582778095659</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -25977,7 +26076,7 @@
         <v>94.194865586042312</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -26006,7 +26105,7 @@
         <v>130.92336976038479</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>465</v>
       </c>
@@ -26035,7 +26134,7 @@
         <v>56.093735525442092</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -26064,7 +26163,7 @@
         <v>120.0025879587557</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -26093,7 +26192,7 @@
         <v>216.4266929109626</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>473</v>
       </c>
@@ -26122,7 +26221,7 @@
         <v>314.38631996171551</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>476</v>
       </c>
@@ -26151,7 +26250,7 @@
         <v>36.228616089508023</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -26180,7 +26279,7 @@
         <v>37.559195764500807</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -26209,7 +26308,7 @@
         <v>95.947328697589569</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -26238,7 +26337,7 @@
         <v>143.32701722369731</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -26267,7 +26366,7 @@
         <v>69.533267626473091</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -26296,7 +26395,7 @@
         <v>34.978256911773038</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -26325,7 +26424,7 @@
         <v>33.720790608158588</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -26354,7 +26453,7 @@
         <v>174.02946512139169</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -26383,7 +26482,7 @@
         <v>71.607069328149748</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -26412,7 +26511,7 @@
         <v>64.203498483131426</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -26441,7 +26540,7 @@
         <v>108.1752371171868</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -26470,7 +26569,7 @@
         <v>35.848151827102612</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -26499,7 +26598,7 @@
         <v>36.230035990973157</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -26528,7 +26627,7 @@
         <v>127.000672322265</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
